--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -13,23 +13,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>int[]</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>bagId</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t xml:space="preserve">龙 ID</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t xml:space="preserve">背包物 ID</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
   </si>
   <si>
     <t>捕捉成功率算法</t>
-  </si>
-  <si>
-    <t>ExampleDragon</t>
   </si>
   <si>
     <t>0|0</t>
@@ -690,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -701,20 +689,11 @@
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1525,15 +1504,14 @@
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" style="0" width="10.875"/>
-    <col customWidth="1" min="2" max="2" style="0" width="40.625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="10.875"/>
-    <col customWidth="1" min="4" max="4" width="10.875"/>
-    <col customWidth="1" min="5" max="6" style="0" width="10.875"/>
-    <col customWidth="1" min="7" max="7" style="0" width="40.625"/>
-    <col customWidth="1" min="8" max="12" style="0" width="10.875"/>
-    <col customWidth="1" min="13" max="13" style="0" width="51.216666666666697"/>
-    <col customWidth="1" min="14" max="16" style="0" width="17.1666666666667"/>
-    <col min="17" max="16384" style="0" width="10.875"/>
+    <col customWidth="1" min="2" max="2" style="1" width="10.875"/>
+    <col customWidth="1" min="3" max="3" width="10.875"/>
+    <col customWidth="1" min="4" max="5" style="0" width="10.875"/>
+    <col customWidth="1" min="6" max="6" style="0" width="40.625"/>
+    <col customWidth="1" min="7" max="11" style="0" width="10.875"/>
+    <col customWidth="1" min="12" max="12" style="0" width="51.216666666666697"/>
+    <col customWidth="1" min="13" max="15" style="0" width="17.1666666666667"/>
+    <col min="16" max="16384" style="0" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -1541,27 +1519,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1570,97 +1548,88 @@
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="30">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
@@ -1668,8 +1637,8 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1678,59 +1647,55 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6">
         <v>300</v>
       </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
       <c r="I5" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
         <v>0</v>
       </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1738,17 +1703,16 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1756,17 +1720,16 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1774,7 +1737,6 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
       <c r="A9" s="1"/>
@@ -1792,17 +1754,16 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1810,17 +1771,16 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1828,16 +1788,16 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1845,25 +1805,23 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
@@ -1871,130 +1829,128 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2002,16 +1958,16 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2019,16 +1975,16 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2036,16 +1992,16 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2053,16 +2009,16 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2070,17 +2026,16 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2088,17 +2043,16 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2106,16 +2060,16 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2123,16 +2077,16 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2140,16 +2094,16 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2157,16 +2111,16 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2174,16 +2128,16 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2191,16 +2145,16 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2208,16 +2162,16 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2225,16 +2179,16 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2242,14 +2196,14 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2259,14 +2213,14 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2276,14 +2230,14 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2293,14 +2247,14 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2310,14 +2264,14 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="9"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2327,14 +2281,14 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2344,14 +2298,14 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="9"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2361,14 +2315,14 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="9"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2378,14 +2332,14 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="9"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2395,9 +2349,9 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="15">
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2409,7 +2363,6 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -678,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,6 +688,9 @@
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1614,7 +1617,7 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1637,7 +1640,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1649,25 +1652,25 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>300</v>
       </c>
       <c r="H5" s="1">
@@ -1688,30 +1691,52 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>300</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1722,13 +1747,13 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1757,12 +1782,12 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1776,10 +1801,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1793,10 +1818,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1808,20 +1833,20 @@
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
@@ -1829,127 +1854,127 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1960,13 +1985,13 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1977,13 +2002,13 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1994,13 +2019,13 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2011,13 +2036,13 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2028,13 +2053,13 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2045,13 +2070,13 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2062,13 +2087,13 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2079,13 +2104,13 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2096,13 +2121,13 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2113,13 +2138,13 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2130,13 +2155,13 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2147,13 +2172,13 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2164,13 +2189,13 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2181,13 +2206,13 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2198,11 +2223,11 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2215,11 +2240,11 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2232,11 +2257,11 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2249,11 +2274,11 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2266,11 +2291,11 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2283,11 +2308,11 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2300,11 +2325,11 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2317,11 +2342,11 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2334,11 +2359,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -13,12 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>int[]</t>
   </si>
   <si>
     <t>id</t>
@@ -34,9 +31,6 @@
   </si>
   <si>
     <t>qualityId</t>
-  </si>
-  <si>
-    <t>generationAreaId</t>
   </si>
   <si>
     <t>existenceTime</t>
@@ -69,9 +63,6 @@
     <t xml:space="preserve">品质 ID</t>
   </si>
   <si>
-    <t xml:space="preserve">生成区域 ID</t>
-  </si>
-  <si>
     <t>存在时间</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
   </si>
   <si>
     <t>捕捉成功率算法</t>
-  </si>
-  <si>
-    <t>0|0</t>
   </si>
 </sst>
 </file>
@@ -678,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,9 +676,6 @@
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1509,12 +1494,10 @@
     <col min="1" max="1" style="0" width="10.875"/>
     <col customWidth="1" min="2" max="2" style="1" width="10.875"/>
     <col customWidth="1" min="3" max="3" width="10.875"/>
-    <col customWidth="1" min="4" max="5" style="0" width="10.875"/>
-    <col customWidth="1" min="6" max="6" style="0" width="40.625"/>
-    <col customWidth="1" min="7" max="11" style="0" width="10.875"/>
-    <col customWidth="1" min="12" max="12" style="0" width="51.216666666666697"/>
-    <col customWidth="1" min="13" max="15" style="0" width="17.1666666666667"/>
-    <col min="16" max="16384" style="0" width="10.875"/>
+    <col customWidth="1" min="4" max="10" style="0" width="10.875"/>
+    <col customWidth="1" min="11" max="11" style="0" width="51.216666666666697"/>
+    <col customWidth="1" min="12" max="14" style="0" width="17.1666666666667"/>
+    <col min="15" max="16384" style="0" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -1534,12 +1517,12 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1548,91 +1531,82 @@
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="30">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
@@ -1640,7 +1614,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1649,94 +1623,87 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="6">
         <v>300</v>
       </c>
+      <c r="G5" s="1">
+        <v>80</v>
+      </c>
       <c r="H5" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
         <v>0</v>
       </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
+        <v>300</v>
+      </c>
+      <c r="G6" s="1">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <v>300</v>
-      </c>
-      <c r="H6" s="1">
-        <v>80</v>
-      </c>
       <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1744,16 +1711,15 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1761,7 +1727,6 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
       <c r="A9" s="1"/>
@@ -1778,16 +1743,15 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1795,16 +1759,15 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1812,16 +1775,15 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1829,24 +1791,22 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
@@ -1854,127 +1814,120 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1982,16 +1935,15 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1999,16 +1951,15 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2016,16 +1967,15 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2033,16 +1983,15 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2050,16 +1999,15 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2067,16 +2015,15 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2084,16 +2031,15 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2101,16 +2047,15 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2118,16 +2063,15 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2135,16 +2079,15 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2152,16 +2095,15 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2169,16 +2111,15 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2186,16 +2127,15 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2203,16 +2143,15 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2220,14 +2159,13 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2237,14 +2175,13 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2254,14 +2191,13 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2271,14 +2207,13 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2288,14 +2223,13 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2305,14 +2239,13 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2322,14 +2255,13 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2339,14 +2271,13 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2356,14 +2287,13 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2373,7 +2303,6 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="15">
       <c r="D45" s="1"/>
@@ -2387,7 +2316,6 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86522312-3596-4F93-B154-909C8B0ABC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="8475" yWindow="3615" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,115 +25,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bagId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elementalId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualityId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existenceTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generationInterval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hitPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">successRateAlgoId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">龙 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背包物 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">形象</t>
-  </si>
-  <si>
-    <t xml:space="preserve">元素 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品质 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存在时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可捕捉次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">捕捉消耗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">捕捉成功率算法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B88E6FED4EFDC43887594596D9C6EC25</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>bagId</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>elementalId</t>
+  </si>
+  <si>
+    <t>qualityId</t>
+  </si>
+  <si>
+    <t>existenceTime</t>
+  </si>
+  <si>
+    <t>generationInterval</t>
+  </si>
+  <si>
+    <t>hitPoint</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>successRateAlgoId</t>
+  </si>
+  <si>
+    <t>龙 ID</t>
+  </si>
+  <si>
+    <t>背包物 ID</t>
+  </si>
+  <si>
+    <t>形象</t>
+  </si>
+  <si>
+    <t>元素 ID</t>
+  </si>
+  <si>
+    <t>品质 ID</t>
+  </si>
+  <si>
+    <t>存在时间</t>
+  </si>
+  <si>
+    <t>生成间隔</t>
+  </si>
+  <si>
+    <t>可捕捉次数</t>
+  </si>
+  <si>
+    <t>捕捉消耗</t>
+  </si>
+  <si>
+    <t>捕捉成功率算法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +126,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -148,92 +134,358 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="51.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="17.17"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="11" max="11" width="51.25" customWidth="1"/>
+    <col min="12" max="14" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -265,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -297,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -329,103 +581,153 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
         <v>300</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>80</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>300</v>
+      </c>
+      <c r="G6" s="1">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="n">
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
         <v>300</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G7" s="1">
         <v>80</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>300</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -438,7 +740,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -449,7 +751,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -462,7 +764,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
@@ -475,7 +777,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -488,7 +790,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
@@ -501,7 +803,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="D19" s="4"/>
@@ -516,7 +818,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="D20" s="4"/>
@@ -531,149 +833,149 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="4"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,31 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86522312-3596-4F93-B154-909C8B0ABC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="3615" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
@@ -63,19 +51,19 @@
     <t>successRateAlgoId</t>
   </si>
   <si>
-    <t>龙 ID</t>
-  </si>
-  <si>
-    <t>背包物 ID</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背包物 ID</t>
   </si>
   <si>
     <t>形象</t>
   </si>
   <si>
-    <t>元素 ID</t>
-  </si>
-  <si>
-    <t>品质 ID</t>
+    <t xml:space="preserve">元素 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品质 ID</t>
   </si>
   <si>
     <t>存在时间</t>
@@ -96,25 +84,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="微软雅黑"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,35 +106,38 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -167,15 +149,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,108 +479,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -326,7 +494,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -352,7 +520,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -404,16 +572,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -429,7 +609,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -460,129 +640,122 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="11" max="11" width="51.25" customWidth="1"/>
-    <col min="12" max="14" width="17.125" customWidth="1"/>
+    <col min="2" max="2" style="1" width="10.875"/>
+    <col customWidth="1" min="3" max="3" width="33.625"/>
+    <col customWidth="1" min="11" max="11" width="51.25"/>
+    <col customWidth="1" min="12" max="14" width="17.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="1" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="30">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="1" customFormat="1"/>
+    <row r="5" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -595,7 +768,7 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="6">
@@ -614,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -627,7 +800,7 @@
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="6">
@@ -646,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -659,7 +832,7 @@
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="6">
@@ -678,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -710,37 +883,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1">
       <c r="B10" s="5"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" s="1" customFormat="1">
       <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" s="1" customFormat="1">
       <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="1" customFormat="1">
       <c r="B13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="7"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" s="1" customFormat="1">
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -751,9 +924,9 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+    <row r="15" s="1" customFormat="1">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
@@ -764,9 +937,9 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="16" s="1" customFormat="1">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
@@ -777,9 +950,9 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+    <row r="17" s="1" customFormat="1">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
@@ -790,12 +963,12 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    <row r="18" s="1" customFormat="1">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -803,11 +976,11 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="1" customFormat="1">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
@@ -818,11 +991,11 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="1" customFormat="1">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
@@ -833,148 +1006,148 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="1" customFormat="1">
       <c r="A21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="1" customFormat="1">
       <c r="A22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="1" customFormat="1">
       <c r="A23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="1" customFormat="1">
       <c r="A24" s="6"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="1" customFormat="1">
       <c r="A25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="1" customFormat="1">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="1" customFormat="1">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="1" customFormat="1">
       <c r="A28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="1" customFormat="1">
       <c r="A29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="1" customFormat="1">
       <c r="A30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="1" customFormat="1">
       <c r="A31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="1" customFormat="1">
       <c r="A32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="1" customFormat="1">
       <c r="A33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="1" customFormat="1">
       <c r="A34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="1" customFormat="1">
       <c r="A35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="1" customFormat="1">
       <c r="A36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" s="1" customFormat="1">
       <c r="A37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1">
       <c r="A38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="1" customFormat="1">
       <c r="A39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="1" customFormat="1">
       <c r="A40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="1" customFormat="1">
       <c r="A41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="1" customFormat="1">
       <c r="A42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="1" customFormat="1">
       <c r="A43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="1" customFormat="1">
       <c r="A44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33898D3-DEDD-486B-B7AD-9E0AA6C58080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>int</t>
   </si>
@@ -43,6 +36,9 @@
     <t>qualityId</t>
   </si>
   <si>
+    <t>areaId</t>
+  </si>
+  <si>
     <t>existenceTime</t>
   </si>
   <si>
@@ -61,16 +57,19 @@
     <t>ID</t>
   </si>
   <si>
-    <t>背包物 ID</t>
+    <t xml:space="preserve">背包物 ID</t>
   </si>
   <si>
     <t>形象</t>
   </si>
   <si>
-    <t>元素 ID</t>
-  </si>
-  <si>
-    <t>品质 ID</t>
+    <t xml:space="preserve">元素 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品质 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成区域 ID</t>
   </si>
   <si>
     <t>存在时间</t>
@@ -91,24 +90,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color indexed="64"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,35 +112,44 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -161,15 +161,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,28 +652,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.25" customWidth="1"/>
-    <col min="12" max="14" width="17.125" customWidth="1"/>
+    <col min="2" max="2" style="1" width="10.875"/>
+    <col customWidth="1" min="3" max="3" width="33.625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="16.75"/>
+    <col customWidth="1" min="12" max="12" width="51.25"/>
+    <col customWidth="1" min="13" max="15" width="17.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -409,13 +687,13 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -424,8 +702,11 @@
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="30">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -441,13 +722,13 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -456,137 +737,154 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>300</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>80</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
       <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>300</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>80</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
       <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
         <v>300</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>80</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
       <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -602,287 +900,324 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
         <v>300</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>80</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
       <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1">
+      <c r="B10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" s="1" customFormat="1">
+      <c r="B13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1">
+      <c r="G14" s="6"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" s="1" customFormat="1">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" s="1" customFormat="1">
+      <c r="A21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" s="1" customFormat="1">
+      <c r="A22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" s="1" customFormat="1">
+      <c r="A23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" s="1" customFormat="1">
+      <c r="A24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" s="1" customFormat="1">
+      <c r="A25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" s="1" customFormat="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" s="1" customFormat="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" s="1" customFormat="1">
+      <c r="A28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" s="1" customFormat="1">
+      <c r="A29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" s="1" customFormat="1">
+      <c r="A30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" s="1" customFormat="1">
+      <c r="A31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" s="1" customFormat="1">
+      <c r="A32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" s="1" customFormat="1">
+      <c r="A33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" s="1" customFormat="1">
+      <c r="A34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" s="1" customFormat="1">
+      <c r="A35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" s="1" customFormat="1">
+      <c r="A36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" s="1" customFormat="1">
+      <c r="A37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" s="1" customFormat="1">
+      <c r="A38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" s="1" customFormat="1">
+      <c r="A39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" s="1" customFormat="1">
+      <c r="A40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" s="1" customFormat="1">
+      <c r="A41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" s="1" customFormat="1">
+      <c r="A42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" s="1" customFormat="1">
+      <c r="A43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" s="1" customFormat="1">
+      <c r="A44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
@@ -24,9 +24,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>bagId</t>
-  </si>
-  <si>
     <t>avatar</t>
   </si>
   <si>
@@ -51,15 +48,9 @@
     <t>cost</t>
   </si>
   <si>
-    <t>successRateAlgoId</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">背包物 ID</t>
-  </si>
-  <si>
     <t>形象</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
   </si>
   <si>
     <t>捕捉消耗</t>
-  </si>
-  <si>
-    <t>捕捉成功率算法</t>
   </si>
 </sst>
 </file>
@@ -122,11 +110,8 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -137,7 +122,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -145,11 +130,8 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,556 +646,502 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" style="1" width="10.875"/>
-    <col customWidth="1" min="3" max="3" width="33.625"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="16.75"/>
-    <col customWidth="1" min="12" max="12" width="51.25"/>
-    <col customWidth="1" min="13" max="15" width="17.125"/>
+    <col customWidth="1" min="2" max="2" width="33.625"/>
+    <col customWidth="1" min="10" max="12" width="17.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="30">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1">
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" s="1" customFormat="1">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" s="4" customFormat="1">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>300</v>
+      </c>
+      <c r="G5" s="4">
+        <v>80</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>300</v>
+      </c>
+      <c r="G6" s="4">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>300</v>
+      </c>
+      <c r="G7" s="4">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" s="4" customFormat="1">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>300</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G8" s="4">
         <v>80</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>10</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>300</v>
-      </c>
-      <c r="H6" s="1">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>300</v>
-      </c>
-      <c r="H7" s="1">
-        <v>80</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>300</v>
-      </c>
-      <c r="H8" s="1">
-        <v>80</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1">
-      <c r="B10" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" s="4" customFormat="1"/>
+    <row r="10" s="4" customFormat="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1">
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" s="4" customFormat="1">
+      <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1">
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" s="4" customFormat="1">
+      <c r="C12" s="5"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1">
-      <c r="B13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" s="1" customFormat="1">
-      <c r="G14" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" s="4" customFormat="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" s="4" customFormat="1">
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" s="1" customFormat="1">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" s="4" customFormat="1">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" s="1" customFormat="1">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" s="4" customFormat="1">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" s="1" customFormat="1">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" s="4" customFormat="1">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" s="4" customFormat="1">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" s="4" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" s="4" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1">
-      <c r="A21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1">
-      <c r="A22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1">
-      <c r="A23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1">
-      <c r="A24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1">
-      <c r="A25" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" s="4" customFormat="1">
+      <c r="A21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" s="4" customFormat="1">
+      <c r="A22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" s="4" customFormat="1">
+      <c r="A23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" s="4" customFormat="1">
+      <c r="A24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" s="4" customFormat="1">
+      <c r="A25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" s="4" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" s="4" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1">
-      <c r="A28" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" s="4" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1">
-      <c r="A29" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" s="4" customFormat="1">
+      <c r="A29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" s="1" customFormat="1">
-      <c r="A30" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" s="4" customFormat="1">
+      <c r="A30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" s="1" customFormat="1">
-      <c r="A31" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" s="4" customFormat="1">
+      <c r="A31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" s="1" customFormat="1">
-      <c r="A32" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" s="4" customFormat="1">
+      <c r="A32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" s="1" customFormat="1">
-      <c r="A33" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" s="4" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" s="1" customFormat="1">
-      <c r="A34" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" s="4" customFormat="1">
+      <c r="A34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" s="1" customFormat="1">
-      <c r="A35" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" s="4" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" s="1" customFormat="1">
-      <c r="A36" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" s="4" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" s="1" customFormat="1">
-      <c r="A37" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" s="4" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" s="1" customFormat="1">
-      <c r="A38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" s="1" customFormat="1">
-      <c r="A39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" s="1" customFormat="1">
-      <c r="A40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" s="1" customFormat="1">
-      <c r="A41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" s="1" customFormat="1">
-      <c r="A42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" s="1" customFormat="1">
-      <c r="A43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" s="1" customFormat="1">
-      <c r="A44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" s="1" customFormat="1"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" s="4" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" s="4" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" s="4" customFormat="1">
+      <c r="A40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" s="4" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" s="4" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" s="4" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" s="4" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" s="4" customFormat="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>int</t>
   </si>
@@ -21,6 +21,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -33,7 +36,7 @@
     <t>qualityId</t>
   </si>
   <si>
-    <t>areaId</t>
+    <t>areaIds</t>
   </si>
   <si>
     <t>existenceTime</t>
@@ -60,7 +63,7 @@
     <t xml:space="preserve">品质 ID</t>
   </si>
   <si>
-    <t xml:space="preserve">生成区域 ID</t>
+    <t xml:space="preserve">生成区域 ID 集合</t>
   </si>
   <si>
     <t>存在时间</t>
@@ -646,8 +649,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="33.625"/>
-    <col customWidth="1" min="10" max="12" width="17.125"/>
+    <col min="1" max="1" style="0" width="10.875"/>
+    <col customWidth="1" min="2" max="2" style="0" width="33.625"/>
+    <col min="3" max="4" style="0" width="10.875"/>
+    <col min="5" max="5" style="0" width="10.875"/>
+    <col min="6" max="9" style="0" width="10.875"/>
+    <col customWidth="1" min="10" max="12" style="0" width="17.125"/>
+    <col min="13" max="16384" style="0" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -664,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -682,66 +690,67 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="30">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" s="4" customFormat="1">
       <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" s="4" customFormat="1">
       <c r="A5" s="4">
@@ -1092,54 +1101,63 @@
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" s="4" customFormat="1">
       <c r="A37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" s="4" customFormat="1">
       <c r="A38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" s="4" customFormat="1">
       <c r="A39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" s="4" customFormat="1">
       <c r="A40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" s="4" customFormat="1">
       <c r="A41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" s="4" customFormat="1">
       <c r="A42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" s="4" customFormat="1">
       <c r="A43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" s="4" customFormat="1">
       <c r="A44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" s="4" customFormat="1"/>
   </sheetData>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3FB20D-DBEC-4797-A5A7-ABDE19B6E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="6975" yWindow="3585" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>int</t>
   </si>
@@ -57,13 +64,13 @@
     <t>形象</t>
   </si>
   <si>
-    <t xml:space="preserve">元素 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品质 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成区域 ID 集合</t>
+    <t>元素 ID</t>
+  </si>
+  <si>
+    <t>品质 ID</t>
+  </si>
+  <si>
+    <t>生成区域 ID 集合</t>
   </si>
   <si>
     <t>存在时间</t>
@@ -76,21 +83,52 @@
   </si>
   <si>
     <t>捕捉消耗</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|6|7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|8|9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|10|11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,38 +141,44 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,295 +190,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -637,28 +401,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="0" width="10.875"/>
-    <col customWidth="1" min="2" max="2" style="0" width="33.625"/>
-    <col min="3" max="4" style="0" width="10.875"/>
-    <col min="5" max="5" style="0" width="10.875"/>
-    <col min="6" max="9" style="0" width="10.875"/>
-    <col customWidth="1" min="10" max="12" style="0" width="17.125"/>
-    <col min="13" max="16384" style="0" width="10.875"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -686,9 +448,8 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30">
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,9 +477,8 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" s="1" customFormat="1">
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -746,13 +506,9 @@
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" s="4" customFormat="1">
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -765,8 +521,8 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="5">
         <v>300</v>
@@ -780,9 +536,8 @@
       <c r="I5" s="4">
         <v>10</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" s="4" customFormat="1">
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -795,8 +550,8 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>300</v>
@@ -810,9 +565,8 @@
       <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" s="4" customFormat="1">
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -825,8 +579,8 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="5">
         <v>300</v>
@@ -840,9 +594,8 @@
       <c r="I7" s="4">
         <v>10</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" s="4" customFormat="1">
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -855,8 +608,8 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="5">
         <v>300</v>
@@ -870,50 +623,77 @@
       <c r="I8" s="4">
         <v>10</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" s="4" customFormat="1"/>
-    <row r="10" s="4" customFormat="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" s="4" customFormat="1">
-      <c r="C11" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" s="4" customFormat="1">
-      <c r="C12" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" s="4" customFormat="1">
-      <c r="B13" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" s="4" customFormat="1">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="5"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" s="4" customFormat="1">
+    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -925,7 +705,8 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" s="4" customFormat="1">
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -937,233 +718,170 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" s="4" customFormat="1">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" s="4" customFormat="1">
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" s="4" customFormat="1">
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" s="4" customFormat="1">
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" s="4" customFormat="1">
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" s="4" customFormat="1">
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" s="4" customFormat="1">
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" s="4" customFormat="1">
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" s="4" customFormat="1">
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" s="4" customFormat="1">
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" s="4" customFormat="1">
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" s="4" customFormat="1">
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" s="4" customFormat="1">
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" s="4" customFormat="1">
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" s="4" customFormat="1">
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" s="4" customFormat="1">
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" s="4" customFormat="1">
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" s="4" customFormat="1">
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" s="4" customFormat="1">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" s="4" customFormat="1">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" s="4" customFormat="1">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" s="4" customFormat="1">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" s="4" customFormat="1">
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" s="4" customFormat="1">
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" s="4" customFormat="1">
-      <c r="A41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" s="4" customFormat="1">
-      <c r="A42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" s="4" customFormat="1">
-      <c r="A43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" s="4" customFormat="1">
-      <c r="A44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" s="4" customFormat="1"/>
+    </row>
+    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3FB20D-DBEC-4797-A5A7-ABDE19B6E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B1393-664A-4CF3-AB43-8437085C12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="3585" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
@@ -85,19 +85,7 @@
     <t>捕捉消耗</t>
   </si>
   <si>
-    <t>1|2|3|4|5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3|6|7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3|8|9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3|10|11</t>
+    <t>1|2|3|4|56|7|8|9|10|11|12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,9 +164,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,14 +395,14 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -449,7 +434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -525,16 +510,16 @@
         <v>21</v>
       </c>
       <c r="F5" s="5">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G5" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -551,19 +536,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G6" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -580,19 +565,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -608,20 +593,20 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="5">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G8" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -881,7 +866,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B1393-664A-4CF3-AB43-8437085C12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B3FE0-E9F9-4F0F-AF53-5764DF6738C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F5" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -510,7 +510,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G5" s="4">
         <v>120</v>
@@ -539,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4">
         <v>120</v>
@@ -568,7 +568,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G7" s="4">
         <v>120</v>
@@ -597,7 +597,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4">
         <v>120</v>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B3FE0-E9F9-4F0F-AF53-5764DF6738C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BEAC49-88DA-4355-9342-F3797002C22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>1|2|3|4|56|7|8|9|10|11|12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6BC7E3C4AD0360A3871539DB8AD1C8C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3211A8204237F13B0F32058A52224938</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9738674B4A58D76D124FFCBE4650659F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>65F42892423491C2DA80E6AD3E9AD625</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,14 +414,14 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.59765625" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -434,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -497,8 +516,8 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -526,8 +545,8 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -555,8 +574,8 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -584,8 +603,8 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BEAC49-88DA-4355-9342-F3797002C22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386EEB0-1ADF-460C-9358-E87BBDE887AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,19 +89,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>E6BC7E3C4AD0360A3871539DB8AD1C8C</t>
+    <t>0CE65651422E71E84423E681142A581F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3211A8204237F13B0F32058A52224938</t>
+    <t>F9F4398349B6D10C043C4F92C0A58C6E</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9738674B4A58D76D124FFCBE4650659F</t>
+    <t>959D53384BD302DD4AA78B9E7FA077FE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>65F42892423491C2DA80E6AD3E9AD625</t>
+    <t>212B5FEC4468537FB2D4BC9FB3C853FD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386EEB0-1ADF-460C-9358-E87BBDE887AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D98DF3-34C1-415B-9617-6414CEDE55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,6 @@
     <t>捕捉消耗</t>
   </si>
   <si>
-    <t>1|2|3|4|56|7|8|9|10|11|12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0CE65651422E71E84423E681142A581F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -102,6 +98,10 @@
   </si>
   <si>
     <t>212B5FEC4468537FB2D4BC9FB3C853FD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4|56|7|8|9|10|11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5">
         <v>100</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5">
         <v>100</v>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>100</v>
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5">
         <v>100</v>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D98DF3-34C1-415B-9617-6414CEDE55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1142A4C6-6C70-44FA-B738-0CBA857E13B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1|2|3|4|56|7|8|9|10|11</t>
+    <t>2|4|6|8|10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -132,6 +132,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -179,9 +186,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -414,14 +421,14 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="37.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -453,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -516,7 +523,7 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="5">
@@ -525,11 +532,11 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G5" s="4">
         <v>120</v>
@@ -545,7 +552,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5">
@@ -554,11 +561,11 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G6" s="4">
         <v>120</v>
@@ -574,7 +581,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5">
@@ -583,11 +590,11 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G7" s="4">
         <v>120</v>
@@ -603,7 +610,7 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4">
@@ -612,11 +619,11 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G8" s="4">
         <v>120</v>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1142A4C6-6C70-44FA-B738-0CBA857E13B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0AE4F-1D91-42DD-B2C5-5EAF60B939AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -421,14 +421,14 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="G5" s="4">
         <v>120</v>
@@ -565,7 +565,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="G6" s="4">
         <v>120</v>
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="G7" s="4">
         <v>120</v>
@@ -623,7 +623,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="G8" s="4">
         <v>120</v>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0AE4F-1D91-42DD-B2C5-5EAF60B939AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1608C04D-2DF6-4D27-B87E-CD1718489F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>int</t>
   </si>
@@ -102,6 +113,30 @@
   </si>
   <si>
     <t>2|4|6|8|10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>929EA0DB4E409DC4077786928E8697C6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEDAA94940BE9848E3F4AFA07FDE3226</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0B661B284320AF4FC8C0F89FB6124BE8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35F0979C4331DD6FFDBEAABB24D0292C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D51ECB7946B438A5D8F74AABBE659AB2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2EAB1D894378E985A2EA22B7ACCAE898</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +456,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -636,8 +671,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
       <c r="G9" s="7"/>
@@ -647,6 +692,18 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
@@ -656,8 +713,18 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
@@ -668,8 +735,18 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
       <c r="G12" s="7"/>
@@ -680,8 +757,18 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
       <c r="G13" s="7"/>
@@ -692,8 +779,18 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
       <c r="G14" s="7"/>

--- a/Excels/Dragon_龙表.xlsx
+++ b/Excels/Dragon_龙表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20BCF35-7391-4554-8517-081DC8064115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4078295C-A440-4B9B-B3C4-EE932BBCF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,59 +76,60 @@
     <t>生成区域 ID 集合</t>
   </si>
   <si>
+    <t>存在时间 秒 Sec</t>
+  </si>
+  <si>
+    <t>生成间隔 秒 Sec</t>
+  </si>
+  <si>
+    <t>可捕捉次数</t>
+  </si>
+  <si>
+    <t>捕捉消耗</t>
+  </si>
+  <si>
+    <t>0CE65651422E71E84423E681142A581F</t>
+  </si>
+  <si>
+    <t>2|4|6|8|10</t>
+  </si>
+  <si>
+    <t>F9F4398349B6D10C043C4F92C0A58C6E</t>
+  </si>
+  <si>
+    <t>959D53384BD302DD4AA78B9E7FA077FE</t>
+  </si>
+  <si>
+    <t>212B5FEC4468537FB2D4BC9FB3C853FD</t>
+  </si>
+  <si>
+    <t>35F0979C4331DD6FFDBEAABB24D0292C</t>
+  </si>
+  <si>
+    <t>0B661B284320AF4FC8C0F89FB6124BE8</t>
+  </si>
+  <si>
+    <t>D51ECB7946B438A5D8F74AABBE659AB2</t>
+  </si>
+  <si>
+    <t>2EAB1D894378E985A2EA22B7ACCAE898</t>
+  </si>
+  <si>
+    <t>929EA0DB4E409DC4077786928E8697C6</t>
+  </si>
+  <si>
+    <t>FEDAA94940BE9848E3F4AFA07FDE3226</t>
+  </si>
+  <si>
     <t>首次生成冷却 秒 Sec</t>
-  </si>
-  <si>
-    <t>存在时间 秒 Sec</t>
-  </si>
-  <si>
-    <t>生成间隔 秒 Sec</t>
-  </si>
-  <si>
-    <t>可捕捉次数</t>
-  </si>
-  <si>
-    <t>捕捉消耗</t>
-  </si>
-  <si>
-    <t>0CE65651422E71E84423E681142A581F</t>
-  </si>
-  <si>
-    <t>2|4|6|8|10</t>
-  </si>
-  <si>
-    <t>F9F4398349B6D10C043C4F92C0A58C6E</t>
-  </si>
-  <si>
-    <t>959D53384BD302DD4AA78B9E7FA077FE</t>
-  </si>
-  <si>
-    <t>212B5FEC4468537FB2D4BC9FB3C853FD</t>
-  </si>
-  <si>
-    <t>35F0979C4331DD6FFDBEAABB24D0292C</t>
-  </si>
-  <si>
-    <t>0B661B284320AF4FC8C0F89FB6124BE8</t>
-  </si>
-  <si>
-    <t>D51ECB7946B438A5D8F74AABBE659AB2</t>
-  </si>
-  <si>
-    <t>2EAB1D894378E985A2EA22B7ACCAE898</t>
-  </si>
-  <si>
-    <t>929EA0DB4E409DC4077786928E8697C6</t>
-  </si>
-  <si>
-    <t>FEDAA94940BE9848E3F4AFA07FDE3226</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -153,6 +154,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +207,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +441,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -521,20 +532,20 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -543,16 +554,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -575,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -584,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
         <v>240</v>
@@ -607,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -616,10 +627,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="G7" s="5">
         <v>240</v>
@@ -639,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -648,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5">
         <v>240</v>
@@ -671,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -693,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -714,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -737,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>4</v>
@@ -760,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6">
         <v>5</v>
@@ -783,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6">
         <v>6</v>
